--- a/test/paraffin_data.xlsx
+++ b/test/paraffin_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1mike\PycharmProjects\libRL package\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C0DCB4-3C49-4098-A056-2BBB098888D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606AF86C-38BA-4A8E-A5BF-DBA8992E2337}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20720" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -947,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1070,885 +1070,868 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>2.22766666666667</v>
+        <v>2.1976</v>
       </c>
       <c r="C15">
-        <v>6.5083333333333299E-2</v>
+        <v>6.2033333333333301E-2</v>
       </c>
       <c r="D15">
-        <v>1.0547</v>
+        <v>1.0705</v>
       </c>
       <c r="E15">
-        <v>7.4616666666666706E-2</v>
+        <v>6.3966666666666699E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>1</v>
+        <v>1.34</v>
       </c>
       <c r="B16">
-        <v>2.1976</v>
+        <v>2.1814</v>
       </c>
       <c r="C16">
-        <v>6.2033333333333301E-2</v>
+        <v>5.5399999999999998E-2</v>
       </c>
       <c r="D16">
-        <v>1.0705</v>
+        <v>1.0681</v>
       </c>
       <c r="E16">
-        <v>6.3966666666666699E-2</v>
+        <v>5.7700000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>1.34</v>
+        <v>1.68</v>
       </c>
       <c r="B17">
-        <v>2.1814</v>
+        <v>2.1444000000000001</v>
       </c>
       <c r="C17">
-        <v>5.5399999999999998E-2</v>
+        <v>6.3100000000000003E-2</v>
       </c>
       <c r="D17">
-        <v>1.0681</v>
+        <v>1.0942000000000001</v>
       </c>
       <c r="E17">
-        <v>5.7700000000000001E-2</v>
+        <v>3.39E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>1.68</v>
+        <v>2.02</v>
       </c>
       <c r="B18">
-        <v>2.1444000000000001</v>
+        <v>2.1320000000000001</v>
       </c>
       <c r="C18">
-        <v>6.3100000000000003E-2</v>
+        <v>4.9299999999999997E-2</v>
       </c>
       <c r="D18">
-        <v>1.0942000000000001</v>
+        <v>1.0996999999999999</v>
       </c>
       <c r="E18">
-        <v>3.39E-2</v>
+        <v>3.6400000000000002E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>2.02</v>
+        <v>2.36</v>
       </c>
       <c r="B19">
-        <v>2.1320000000000001</v>
+        <v>2.1389</v>
       </c>
       <c r="C19">
-        <v>4.9299999999999997E-2</v>
+        <v>4.5699999999999998E-2</v>
       </c>
       <c r="D19">
-        <v>1.0996999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="E19">
-        <v>3.6400000000000002E-2</v>
+        <v>2.81E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2.36</v>
+        <v>2.7</v>
       </c>
       <c r="B20">
-        <v>2.1389</v>
+        <v>2.1364000000000001</v>
       </c>
       <c r="C20">
-        <v>4.5699999999999998E-2</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="D20">
-        <v>1.0900000000000001</v>
+        <v>1.0958000000000001</v>
       </c>
       <c r="E20">
-        <v>2.81E-2</v>
+        <v>3.2399999999999998E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2.7</v>
+        <v>3.04</v>
       </c>
       <c r="B21">
-        <v>2.1364000000000001</v>
+        <v>2.1339000000000001</v>
       </c>
       <c r="C21">
-        <v>3.9199999999999999E-2</v>
+        <v>3.0200000000000001E-2</v>
       </c>
       <c r="D21">
-        <v>1.0958000000000001</v>
+        <v>1.0920000000000001</v>
       </c>
       <c r="E21">
-        <v>3.2399999999999998E-2</v>
+        <v>4.1599999999999998E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>3.04</v>
+        <v>3.38</v>
       </c>
       <c r="B22">
-        <v>2.1339000000000001</v>
+        <v>2.1297999999999999</v>
       </c>
       <c r="C22">
-        <v>3.0200000000000001E-2</v>
+        <v>2.9499999999999998E-2</v>
       </c>
       <c r="D22">
-        <v>1.0920000000000001</v>
+        <v>1.0925</v>
       </c>
       <c r="E22">
-        <v>4.1599999999999998E-2</v>
+        <v>3.95E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>3.38</v>
+        <v>3.72</v>
       </c>
       <c r="B23">
-        <v>2.1297999999999999</v>
+        <v>2.1297000000000001</v>
       </c>
       <c r="C23">
-        <v>2.9499999999999998E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D23">
-        <v>1.0925</v>
+        <v>1.0922000000000001</v>
       </c>
       <c r="E23">
-        <v>3.95E-2</v>
+        <v>3.3599999999999998E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>3.72</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="B24">
-        <v>2.1297000000000001</v>
+        <v>2.1353</v>
       </c>
       <c r="C24">
-        <v>3.5000000000000003E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="D24">
-        <v>1.0922000000000001</v>
+        <v>1.0943000000000001</v>
       </c>
       <c r="E24">
-        <v>3.3599999999999998E-2</v>
+        <v>2.8400000000000002E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>4.0599999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B25">
-        <v>2.1353</v>
+        <v>2.1469</v>
       </c>
       <c r="C25">
-        <v>4.2700000000000002E-2</v>
+        <v>4.48E-2</v>
       </c>
       <c r="D25">
-        <v>1.0943000000000001</v>
+        <v>1.0819000000000001</v>
       </c>
       <c r="E25">
-        <v>2.8400000000000002E-2</v>
+        <v>2.8500000000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>4.4000000000000004</v>
+        <v>4.74</v>
       </c>
       <c r="B26">
-        <v>2.1469</v>
+        <v>2.1610999999999998</v>
       </c>
       <c r="C26">
-        <v>4.48E-2</v>
+        <v>4.99E-2</v>
       </c>
       <c r="D26">
-        <v>1.0819000000000001</v>
+        <v>1.0641</v>
       </c>
       <c r="E26">
-        <v>2.8500000000000001E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>4.74</v>
+        <v>5.08</v>
       </c>
       <c r="B27">
-        <v>2.1610999999999998</v>
+        <v>2.1623999999999999</v>
       </c>
       <c r="C27">
-        <v>4.99E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D27">
-        <v>1.0641</v>
+        <v>1.0563</v>
       </c>
       <c r="E27">
-        <v>1.9699999999999999E-2</v>
+        <v>2.1299999999999999E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>5.08</v>
+        <v>5.42</v>
       </c>
       <c r="B28">
-        <v>2.1623999999999999</v>
+        <v>2.1509999999999998</v>
       </c>
       <c r="C28">
-        <v>0.06</v>
+        <v>4.87E-2</v>
       </c>
       <c r="D28">
-        <v>1.0563</v>
+        <v>1.0578000000000001</v>
       </c>
       <c r="E28">
-        <v>2.1299999999999999E-2</v>
+        <v>1.83E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>5.42</v>
+        <v>5.76</v>
       </c>
       <c r="B29">
-        <v>2.1509999999999998</v>
+        <v>2.1385000000000001</v>
       </c>
       <c r="C29">
-        <v>4.87E-2</v>
+        <v>3.85E-2</v>
       </c>
       <c r="D29">
-        <v>1.0578000000000001</v>
+        <v>1.0627</v>
       </c>
       <c r="E29">
-        <v>1.83E-2</v>
+        <v>2.63E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>5.76</v>
+        <v>6.1</v>
       </c>
       <c r="B30">
-        <v>2.1385000000000001</v>
+        <v>2.1295999999999999</v>
       </c>
       <c r="C30">
-        <v>3.85E-2</v>
+        <v>4.1200000000000001E-2</v>
       </c>
       <c r="D30">
-        <v>1.0627</v>
+        <v>1.0721000000000001</v>
       </c>
       <c r="E30">
-        <v>2.63E-2</v>
+        <v>2.5899999999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>6.1</v>
+        <v>6.44</v>
       </c>
       <c r="B31">
-        <v>2.1295999999999999</v>
+        <v>2.1124000000000001</v>
       </c>
       <c r="C31">
-        <v>4.1200000000000001E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="D31">
-        <v>1.0721000000000001</v>
+        <v>1.0837000000000001</v>
       </c>
       <c r="E31">
-        <v>2.5899999999999999E-2</v>
+        <v>2.1700000000000001E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>6.44</v>
+        <v>6.78</v>
       </c>
       <c r="B32">
-        <v>2.1124000000000001</v>
+        <v>2.1080000000000001</v>
       </c>
       <c r="C32">
-        <v>4.7E-2</v>
+        <v>4.7899999999999998E-2</v>
       </c>
       <c r="D32">
-        <v>1.0837000000000001</v>
+        <v>1.0932999999999999</v>
       </c>
       <c r="E32">
-        <v>2.1700000000000001E-2</v>
+        <v>2.2200000000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>6.78</v>
+        <v>7.12</v>
       </c>
       <c r="B33">
-        <v>2.1080000000000001</v>
+        <v>2.1171000000000002</v>
       </c>
       <c r="C33">
-        <v>4.7899999999999998E-2</v>
+        <v>4.0399999999999998E-2</v>
       </c>
       <c r="D33">
-        <v>1.0932999999999999</v>
+        <v>1.0861000000000001</v>
       </c>
       <c r="E33">
-        <v>2.2200000000000001E-2</v>
+        <v>2.2100000000000002E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>7.12</v>
+        <v>7.46</v>
       </c>
       <c r="B34">
-        <v>2.1171000000000002</v>
+        <v>2.1448</v>
       </c>
       <c r="C34">
-        <v>4.0399999999999998E-2</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="D34">
-        <v>1.0861000000000001</v>
+        <v>1.0687</v>
       </c>
       <c r="E34">
-        <v>2.2100000000000002E-2</v>
+        <v>2.3699999999999999E-2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>7.46</v>
+        <v>7.8</v>
       </c>
       <c r="B35">
-        <v>2.1448</v>
+        <v>2.1764000000000001</v>
       </c>
       <c r="C35">
-        <v>3.3500000000000002E-2</v>
+        <v>3.6299999999999999E-2</v>
       </c>
       <c r="D35">
-        <v>1.0687</v>
+        <v>1.0427</v>
       </c>
       <c r="E35">
-        <v>2.3699999999999999E-2</v>
+        <v>2.2700000000000001E-2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>7.8</v>
+        <v>8.14</v>
       </c>
       <c r="B36">
-        <v>2.1764000000000001</v>
+        <v>2.1947999999999999</v>
       </c>
       <c r="C36">
-        <v>3.6299999999999999E-2</v>
+        <v>3.9899999999999998E-2</v>
       </c>
       <c r="D36">
-        <v>1.0427</v>
+        <v>1.0285</v>
       </c>
       <c r="E36">
-        <v>2.2700000000000001E-2</v>
+        <v>1.1599999999999999E-2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>8.14</v>
+        <v>8.48</v>
       </c>
       <c r="B37">
-        <v>2.1947999999999999</v>
+        <v>2.1848999999999998</v>
       </c>
       <c r="C37">
-        <v>3.9899999999999998E-2</v>
+        <v>5.0299999999999997E-2</v>
       </c>
       <c r="D37">
-        <v>1.0285</v>
+        <v>1.0245</v>
       </c>
       <c r="E37">
-        <v>1.1599999999999999E-2</v>
+        <v>5.1000000000000004E-3</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>8.48</v>
+        <v>8.82</v>
       </c>
       <c r="B38">
-        <v>2.1848999999999998</v>
+        <v>2.1680000000000001</v>
       </c>
       <c r="C38">
-        <v>5.0299999999999997E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="D38">
-        <v>1.0245</v>
+        <v>1.0385</v>
       </c>
       <c r="E38">
-        <v>5.1000000000000004E-3</v>
+        <v>4.1999999999999997E-3</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>8.82</v>
+        <v>9.16</v>
       </c>
       <c r="B39">
-        <v>2.1680000000000001</v>
+        <v>2.1541000000000001</v>
       </c>
       <c r="C39">
-        <v>4.2700000000000002E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="D39">
-        <v>1.0385</v>
+        <v>1.056</v>
       </c>
       <c r="E39">
-        <v>4.1999999999999997E-3</v>
+        <v>1.21E-2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>9.16</v>
+        <v>9.5</v>
       </c>
       <c r="B40">
-        <v>2.1541000000000001</v>
+        <v>2.1576</v>
       </c>
       <c r="C40">
-        <v>3.4000000000000002E-2</v>
+        <v>2.8400000000000002E-2</v>
       </c>
       <c r="D40">
-        <v>1.056</v>
+        <v>1.0690999999999999</v>
       </c>
       <c r="E40">
-        <v>1.21E-2</v>
+        <v>2.87E-2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>9.5</v>
+        <v>9.84</v>
       </c>
       <c r="B41">
-        <v>2.1576</v>
+        <v>2.1459000000000001</v>
       </c>
       <c r="C41">
-        <v>2.8400000000000002E-2</v>
+        <v>2.52E-2</v>
       </c>
       <c r="D41">
-        <v>1.0690999999999999</v>
+        <v>1.0663</v>
       </c>
       <c r="E41">
-        <v>2.87E-2</v>
+        <v>3.44E-2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>9.84</v>
+        <v>10.18</v>
       </c>
       <c r="B42">
-        <v>2.1459000000000001</v>
+        <v>2.1513</v>
       </c>
       <c r="C42">
-        <v>2.52E-2</v>
+        <v>2.98E-2</v>
       </c>
       <c r="D42">
-        <v>1.0663</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="E42">
-        <v>3.44E-2</v>
+        <v>5.3400000000000003E-2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>10.18</v>
+        <v>10.52</v>
       </c>
       <c r="B43">
-        <v>2.1513</v>
+        <v>2.1402000000000001</v>
       </c>
       <c r="C43">
-        <v>2.98E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="D43">
-        <v>1.0760000000000001</v>
+        <v>1.0708</v>
       </c>
       <c r="E43">
-        <v>5.3400000000000003E-2</v>
+        <v>7.0499999999999993E-2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>10.52</v>
+        <v>10.86</v>
       </c>
       <c r="B44">
-        <v>2.1402000000000001</v>
+        <v>2.1291000000000002</v>
       </c>
       <c r="C44">
-        <v>3.7499999999999999E-2</v>
+        <v>5.21E-2</v>
       </c>
       <c r="D44">
-        <v>1.0708</v>
+        <v>1.0549999999999999</v>
       </c>
       <c r="E44">
-        <v>7.0499999999999993E-2</v>
+        <v>8.1699999999999995E-2</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>10.86</v>
+        <v>11.2</v>
       </c>
       <c r="B45">
-        <v>2.1291000000000002</v>
+        <v>2.1071</v>
       </c>
       <c r="C45">
-        <v>5.21E-2</v>
+        <v>7.1300000000000002E-2</v>
       </c>
       <c r="D45">
-        <v>1.0549999999999999</v>
+        <v>1.0324</v>
       </c>
       <c r="E45">
-        <v>8.1699999999999995E-2</v>
+        <v>6.7199999999999996E-2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>11.2</v>
+        <v>11.54</v>
       </c>
       <c r="B46">
-        <v>2.1071</v>
+        <v>2.0836999999999999</v>
       </c>
       <c r="C46">
-        <v>7.1300000000000002E-2</v>
+        <v>7.8299999999999995E-2</v>
       </c>
       <c r="D46">
-        <v>1.0324</v>
+        <v>1.0319</v>
       </c>
       <c r="E46">
-        <v>6.7199999999999996E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>11.54</v>
+        <v>11.88</v>
       </c>
       <c r="B47">
-        <v>2.0836999999999999</v>
+        <v>2.0914000000000001</v>
       </c>
       <c r="C47">
-        <v>7.8299999999999995E-2</v>
+        <v>7.8700000000000006E-2</v>
       </c>
       <c r="D47">
-        <v>1.0319</v>
+        <v>1.0392999999999999</v>
       </c>
       <c r="E47">
-        <v>3.4000000000000002E-2</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>11.88</v>
+        <v>12.22</v>
       </c>
       <c r="B48">
-        <v>2.0914000000000001</v>
+        <v>2.1038999999999999</v>
       </c>
       <c r="C48">
-        <v>7.8700000000000006E-2</v>
+        <v>8.1199999999999994E-2</v>
       </c>
       <c r="D48">
-        <v>1.0392999999999999</v>
+        <v>1.0483</v>
       </c>
       <c r="E48">
-        <v>2.7000000000000001E-3</v>
+        <v>-1.8700000000000001E-2</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>12.22</v>
+        <v>12.56</v>
       </c>
       <c r="B49">
-        <v>2.1038999999999999</v>
+        <v>2.1267999999999998</v>
       </c>
       <c r="C49">
-        <v>8.1199999999999994E-2</v>
+        <v>7.8899999999999998E-2</v>
       </c>
       <c r="D49">
-        <v>1.0483</v>
+        <v>1.0536000000000001</v>
       </c>
       <c r="E49">
-        <v>-1.8700000000000001E-2</v>
+        <v>-1.6899999999999998E-2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>12.56</v>
+        <v>12.9</v>
       </c>
       <c r="B50">
-        <v>2.1267999999999998</v>
+        <v>2.1271</v>
       </c>
       <c r="C50">
-        <v>7.8899999999999998E-2</v>
+        <v>4.41E-2</v>
       </c>
       <c r="D50">
-        <v>1.0536000000000001</v>
+        <v>1.0476000000000001</v>
       </c>
       <c r="E50">
-        <v>-1.6899999999999998E-2</v>
+        <v>-1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>12.9</v>
+        <v>13.24</v>
       </c>
       <c r="B51">
-        <v>2.1271</v>
+        <v>2.1705000000000001</v>
       </c>
       <c r="C51">
-        <v>4.41E-2</v>
+        <v>-8.5000000000000006E-3</v>
       </c>
       <c r="D51">
-        <v>1.0476000000000001</v>
+        <v>1.0324</v>
       </c>
       <c r="E51">
-        <v>-1.0200000000000001E-2</v>
+        <v>1.23E-2</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>13.24</v>
+        <v>13.58</v>
       </c>
       <c r="B52">
-        <v>2.1705000000000001</v>
+        <v>2.242</v>
       </c>
       <c r="C52">
-        <v>-8.5000000000000006E-3</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="D52">
-        <v>1.0324</v>
+        <v>1.0125</v>
       </c>
       <c r="E52">
-        <v>1.23E-2</v>
+        <v>6.1999999999999998E-3</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>13.58</v>
+        <v>13.92</v>
       </c>
       <c r="B53">
-        <v>2.242</v>
+        <v>2.1899000000000002</v>
       </c>
       <c r="C53">
-        <v>8.8999999999999999E-3</v>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="D53">
-        <v>1.0125</v>
+        <v>1.0438000000000001</v>
       </c>
       <c r="E53">
-        <v>6.1999999999999998E-3</v>
+        <v>1.2800000000000001E-2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>13.92</v>
+        <v>14.26</v>
       </c>
       <c r="B54">
-        <v>2.1899000000000002</v>
+        <v>2.1745999999999999</v>
       </c>
       <c r="C54">
-        <v>6.5600000000000006E-2</v>
+        <v>3.8699999999999998E-2</v>
       </c>
       <c r="D54">
-        <v>1.0438000000000001</v>
+        <v>1.0145999999999999</v>
       </c>
       <c r="E54">
-        <v>1.2800000000000001E-2</v>
+        <v>4.19E-2</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>14.26</v>
+        <v>14.6</v>
       </c>
       <c r="B55">
-        <v>2.1745999999999999</v>
+        <v>2.1865999999999999</v>
       </c>
       <c r="C55">
-        <v>3.8699999999999998E-2</v>
+        <v>3.5200000000000002E-2</v>
       </c>
       <c r="D55">
-        <v>1.0145999999999999</v>
+        <v>0.99970000000000003</v>
       </c>
       <c r="E55">
-        <v>4.19E-2</v>
+        <v>1.7100000000000001E-2</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>14.6</v>
+        <v>14.94</v>
       </c>
       <c r="B56">
-        <v>2.1865999999999999</v>
+        <v>2.2124999999999999</v>
       </c>
       <c r="C56">
-        <v>3.5200000000000002E-2</v>
+        <v>3.7699999999999997E-2</v>
       </c>
       <c r="D56">
-        <v>0.99970000000000003</v>
+        <v>1.004</v>
       </c>
       <c r="E56">
-        <v>1.7100000000000001E-2</v>
+        <v>4.1999999999999997E-3</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>14.94</v>
+        <v>15.28</v>
       </c>
       <c r="B57">
-        <v>2.2124999999999999</v>
+        <v>2.2271000000000001</v>
       </c>
       <c r="C57">
-        <v>3.7699999999999997E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="D57">
-        <v>1.004</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="E57">
-        <v>4.1999999999999997E-3</v>
+        <v>6.1999999999999998E-3</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>15.28</v>
+        <v>15.62</v>
       </c>
       <c r="B58">
-        <v>2.2271000000000001</v>
+        <v>2.218</v>
       </c>
       <c r="C58">
-        <v>4.3999999999999997E-2</v>
+        <v>4.2599999999999999E-2</v>
       </c>
       <c r="D58">
-        <v>0.99829999999999997</v>
+        <v>0.99070000000000003</v>
       </c>
       <c r="E58">
-        <v>6.1999999999999998E-3</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>15.62</v>
+        <v>15.96</v>
       </c>
       <c r="B59">
-        <v>2.218</v>
+        <v>2.2391000000000001</v>
       </c>
       <c r="C59">
-        <v>4.2599999999999999E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="D59">
-        <v>0.99070000000000003</v>
+        <v>0.99429999999999996</v>
       </c>
       <c r="E59">
-        <v>1E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>15.96</v>
+        <v>16.3</v>
       </c>
       <c r="B60">
-        <v>2.2391000000000001</v>
+        <v>2.2202000000000002</v>
       </c>
       <c r="C60">
-        <v>3.7499999999999999E-2</v>
+        <v>5.4399999999999997E-2</v>
       </c>
       <c r="D60">
-        <v>0.99429999999999996</v>
+        <v>1.0038</v>
       </c>
       <c r="E60">
-        <v>8.0000000000000004E-4</v>
+        <v>-5.1000000000000004E-3</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>16.3</v>
+        <v>16.64</v>
       </c>
       <c r="B61">
-        <v>2.2202000000000002</v>
+        <v>2.1989000000000001</v>
       </c>
       <c r="C61">
-        <v>5.4399999999999997E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D61">
-        <v>1.0038</v>
+        <v>1.0112000000000001</v>
       </c>
       <c r="E61">
-        <v>-5.1000000000000004E-3</v>
+        <v>-1.6999999999999999E-3</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>16.64</v>
+        <v>16.98</v>
       </c>
       <c r="B62">
-        <v>2.1989000000000001</v>
+        <v>2.202</v>
       </c>
       <c r="C62">
-        <v>5.2299999999999999E-2</v>
+        <v>5.1299999999999998E-2</v>
       </c>
       <c r="D62">
-        <v>1.0112000000000001</v>
+        <v>1.0237000000000001</v>
       </c>
       <c r="E62">
-        <v>-1.6999999999999999E-3</v>
+        <v>-1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>16.98</v>
+        <v>17.32</v>
       </c>
       <c r="B63">
-        <v>2.202</v>
+        <v>2.1973799999999999</v>
       </c>
       <c r="C63">
-        <v>5.1299999999999998E-2</v>
+        <v>5.8700000000000002E-2</v>
       </c>
       <c r="D63">
-        <v>1.0237000000000001</v>
+        <v>1.0234666666666701</v>
       </c>
       <c r="E63">
-        <v>-1.6000000000000001E-3</v>
+        <v>-2.8500000000000001E-3</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>17.32</v>
+        <v>17.66</v>
       </c>
       <c r="B64">
-        <v>2.1973799999999999</v>
+        <v>2.1916171428571398</v>
       </c>
       <c r="C64">
-        <v>5.8700000000000002E-2</v>
+        <v>6.2630000000000005E-2</v>
       </c>
       <c r="D64">
-        <v>1.0234666666666701</v>
+        <v>1.02912380952381</v>
       </c>
       <c r="E64">
-        <v>-2.8500000000000001E-3</v>
+        <v>-3.2299999999999998E-3</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>17.66</v>
+        <v>18</v>
       </c>
       <c r="B65">
-        <v>2.1916171428571398</v>
+        <v>2.18585428571429</v>
       </c>
       <c r="C65">
-        <v>6.2630000000000005E-2</v>
+        <v>6.6559999999999994E-2</v>
       </c>
       <c r="D65">
-        <v>1.02912380952381</v>
+        <v>1.0347809523809499</v>
       </c>
       <c r="E65">
-        <v>-3.2299999999999998E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>18</v>
-      </c>
-      <c r="B66">
-        <v>2.18585428571429</v>
-      </c>
-      <c r="C66">
-        <v>6.6559999999999994E-2</v>
-      </c>
-      <c r="D66">
-        <v>1.0347809523809499</v>
-      </c>
-      <c r="E66">
         <v>-3.6099999999999999E-3</v>
       </c>
     </row>
